--- a/www/template.xlsx
+++ b/www/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="17">
   <si>
     <t>Water (0.3 l glasses)</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -436,13 +439,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
